--- a/Documentation/User Documentation Case List.xlsx
+++ b/Documentation/User Documentation Case List.xlsx
@@ -721,7 +721,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,92 +757,92 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>9</v>
